--- a/excel-copilot-vba-demo.xlsx
+++ b/excel-copilot-vba-demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/copilot-demo-files/copilot-vba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AE2032-F687-4231-8FD5-9F0C8527468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{4FC3B996-9974-426B-B0E2-AA8B00775D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB891734-E8B3-4F5A-ADB3-14F9591FB98B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{7526E00D-04C9-471F-AB13-D429B6335D57}"/>
   </bookViews>
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -121,18 +121,25 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -143,6 +150,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{608A4C3C-CA0D-4F84-9DC8-EF30350EE812}" name="SalesData" displayName="SalesData" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9" xr:uid="{608A4C3C-CA0D-4F84-9DC8-EF30350EE812}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6FA294F3-1C85-4C9B-8150-65B38D460CE4}" name="Salesperson" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{195121EA-E957-46F0-86FC-1F10A228AE8E}" name="Region" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{014E2163-BC18-41E1-9388-50BABF649F89}" name="SalesAmount" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,20 +483,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1716EEB9-3338-421A-A1C8-EEB49A0C8195}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -571,5 +590,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>